--- a/premise/iam_variables_mapping/mapping_overview.xlsx
+++ b/premise/iam_variables_mapping/mapping_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/iam_variables_mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F4716F-FBAD-5F46-B17B-71CF22BA5611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A587D42-D975-E043-B465-646E56C45AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3200" windowWidth="27240" windowHeight="16440" activeTab="6" xr2:uid="{E70A7AE0-5F6F-4C48-9D9B-52653E58CB71}"/>
+    <workbookView xWindow="2040" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{E70A7AE0-5F6F-4C48-9D9B-52653E58CB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="DAC" sheetId="7" r:id="rId7"/>
     <sheet name="Others" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="508">
   <si>
     <t>premise</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t>Efficiency|Electricity|Oil|w/ CCS|2</t>
-  </si>
-  <si>
-    <t>biomass - purpose grown</t>
   </si>
   <si>
     <t>biomass - residual</t>
@@ -1266,6 +1263,312 @@
   </si>
   <si>
     <t>Carbon Capture|Storage|Direct Air Capture|Cumulative</t>
+  </si>
+  <si>
+    <t>MESSAGE-ix</t>
+  </si>
+  <si>
+    <t>TIAM</t>
+  </si>
+  <si>
+    <t>Electricity|Biomass CHP|w/o CCS</t>
+  </si>
+  <si>
+    <t>Biomass CHP (existing)</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Biomass existing capacity|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Biomass combustion|w/o CCS</t>
+  </si>
+  <si>
+    <t>Biomass ST CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Biomass combustion|w CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Biomass gasification|w CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Biomass gasification|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Existing coal generation|w/o CCS</t>
+  </si>
+  <si>
+    <t>Coal CF 50:50</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Co-firing coal:biomass 50:50|w/o CCS</t>
+  </si>
+  <si>
+    <t>Coal CF 80:20</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Co-firing coal:biomass 80:20|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Coal IGCC|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Coal IGCC|w CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|CHP existing coal|w/o CCS</t>
+  </si>
+  <si>
+    <t>Coal SC</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Supercritical pulverised coal|w/o CCS</t>
+  </si>
+  <si>
+    <t>Coal USC</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Ultra-supercritical pulverised coal|w/o CCS</t>
+  </si>
+  <si>
+    <t>Coal USC CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Ultra-supercritical pulverised coal|w CCS</t>
+  </si>
+  <si>
+    <t>Coal PCU</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Coal|w/o CCS|4</t>
+  </si>
+  <si>
+    <t>Gas GT</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Gas turbine|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Existing gas generation|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Gas CCGT|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Gas CHP|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Gas CCGT|w CCS</t>
+  </si>
+  <si>
+    <t>Gas ST</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Geothermal</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Impoundment hydro</t>
+  </si>
+  <si>
+    <t>Hydro, run-of-river</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|ROR hydro</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Existing oil electric generation|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Oil steam|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Oil CHP|w/o CCS</t>
+  </si>
+  <si>
+    <t>Fuel oil ST</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Solar|CSP|1</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Concentrated Solar CSP centralised</t>
+  </si>
+  <si>
+    <t>Solar CSP autonomous</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Solar|CSP|2</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Solar|PV</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Concentrated Solar PV centralised</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Concentrated Solar PV decentralised</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Wind|Onshore</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Onshore wind centralised</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Wind|Offshore</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Wind offshore centralised</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Tidal</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Biomass CHP|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Existing biomass|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Biomass combustion|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Biomass gasification|w CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Biomass gasification|w/o CCS</t>
+  </si>
+  <si>
+    <t>Biomass MSW</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|MSW|w/o CCS</t>
+  </si>
+  <si>
+    <t>Biogas CHP</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|MSW|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Biogas|w/o CCS</t>
+  </si>
+  <si>
+    <t>Electricity|Biogas|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Existing coal generation|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Co-firing coal:biomass 50:50|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Co-firing coal:biomass 80:20|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Coal IGCC|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Coal IGCC|w CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|CHP existing coal|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Supercritical pulverised coal|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Ultra-supercritical pulverised coal|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Ultra-supercritical pulverised coal|w CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Coal|w/o CCS|4</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Gas turbine|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Existing gas generation|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Gas CCGT|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Gas CHP|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Gas CCGT|w CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Existing oil electric generation|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Oil steam|w/o CCS</t>
+  </si>
+  <si>
+    <t>Efficiency|Electricity|Oil CHP|w/o CCS</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Liquids|Oil</t>
+  </si>
+  <si>
+    <t>biomass crops - purpose grown</t>
+  </si>
+  <si>
+    <t>biomass wodd - purpose grown</t>
+  </si>
+  <si>
+    <t>Primary Energy|Biomass|Fuelwood</t>
+  </si>
+  <si>
+    <t>Production|Non-Metallic Minerals|Cement</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Electricity</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Gases</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Heat</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Hydrogen</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Liquids|Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Liquids|Oil</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Liquids|Other</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Solar</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Solids|Biomass</t>
+  </si>
+  <si>
+    <t>Final Energy|Industry|Non-Metallic Minerals|Cement|Solids|Coal</t>
+  </si>
+  <si>
+    <t>Carbon Sequestration|CCS|Industrial Processes</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Industrial Processes|Non-Metallic Minerals|Cement</t>
+  </si>
+  <si>
+    <t>Emissions|CO2|Energy|Demand|Industry|Non-Metallic Minerals|Cement</t>
+  </si>
+  <si>
+    <t>Production|Primary|Steel</t>
+  </si>
+  <si>
+    <t>Production|Secondary|Steel</t>
   </si>
 </sst>
 </file>
@@ -1328,14 +1631,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1650,49 +1952,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4A3D90-03B9-ED48-81FF-52729677C770}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1705,8 +2011,14 @@
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1719,748 +2031,1281 @@
       <c r="D11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="F26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>430</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F36" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
         <v>33</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="E39" t="s">
+        <v>439</v>
+      </c>
+      <c r="F39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
         <v>35</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D40" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D42" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="E45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="F48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>446</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>46</v>
       </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D51" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="E51" t="s">
+        <v>447</v>
+      </c>
+      <c r="F51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>449</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>48</v>
       </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="E53" t="s">
+        <v>451</v>
+      </c>
+      <c r="F53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="F54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>51</v>
       </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D55" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="E55" t="s">
+        <v>454</v>
+      </c>
+      <c r="F55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
         <v>54</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D56" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="E56" t="s">
+        <v>456</v>
+      </c>
+      <c r="F56" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
         <v>86</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D58" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="F58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>409</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>412</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
         <v>87</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D63" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
         <v>88</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D64" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="E64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>464</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>466</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>12</v>
       </c>
-      <c r="B48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D67" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="E67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>417</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>14</v>
       </c>
-      <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
         <v>90</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D70" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="B50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>18</v>
       </c>
-      <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
         <v>92</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D72" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>20</v>
       </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
         <v>93</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D73" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="F73" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>22</v>
       </c>
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>424</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>426</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>428</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>430</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>438</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>432</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>23</v>
       </c>
-      <c r="B54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
         <v>94</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D81" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>25</v>
       </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
         <v>95</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D82" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="E82" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>27</v>
       </c>
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
         <v>96</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D83" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="F83" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>29</v>
       </c>
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>30</v>
       </c>
-      <c r="B58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
         <v>97</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D85" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="E85" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>32</v>
       </c>
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>34</v>
       </c>
-      <c r="B60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>36</v>
       </c>
-      <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="E88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>39</v>
       </c>
-      <c r="B63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>40</v>
       </c>
-      <c r="B64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
         <v>98</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D91" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="E91" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>42</v>
       </c>
-      <c r="B65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="E92" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>43</v>
       </c>
-      <c r="B66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>44</v>
       </c>
-      <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="F94" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>45</v>
       </c>
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>446</v>
+      </c>
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>46</v>
       </c>
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>48</v>
       </c>
-      <c r="B70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>50</v>
       </c>
-      <c r="B71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>51</v>
       </c>
-      <c r="B72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>53</v>
       </c>
-      <c r="B73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>55</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B102" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2471,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F83111B-00C5-E842-8DE0-9E84414D9D23}">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2485,37 +3330,37 @@
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -2528,1750 +3373,1762 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>197</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
         <v>206</v>
       </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
         <v>212</v>
       </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>213</v>
       </c>
-      <c r="D31" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>214</v>
-      </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="E32" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
         <v>217</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
         <v>219</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
         <v>221</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
         <v>226</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>227</v>
-      </c>
       <c r="D41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
         <v>228</v>
       </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>229</v>
-      </c>
       <c r="D42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
         <v>234</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
         <v>236</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
         <v>238</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
         <v>240</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
         <v>242</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
         <v>244</v>
-      </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>246</v>
-      </c>
-      <c r="B53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="D57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="D59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="D60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="D61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
         <v>84</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="D65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s">
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B172" t="s">
         <v>85</v>
       </c>
       <c r="D172" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B173" t="s">
         <v>85</v>
       </c>
       <c r="D173" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B174" t="s">
         <v>85</v>
       </c>
       <c r="D174" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B175" t="s">
         <v>85</v>
       </c>
       <c r="D175" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B188" t="s">
         <v>85</v>
       </c>
       <c r="D188" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B189" t="s">
         <v>85</v>
       </c>
       <c r="D189" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B190" t="s">
         <v>85</v>
       </c>
       <c r="D190" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B191" t="s">
         <v>85</v>
       </c>
       <c r="D191" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B192" t="s">
         <v>85</v>
       </c>
       <c r="D192" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B193" t="s">
         <v>85</v>
       </c>
       <c r="D193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B194" t="s">
         <v>85</v>
       </c>
       <c r="D194" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B195" t="s">
         <v>85</v>
       </c>
       <c r="D195" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B196" t="s">
         <v>85</v>
       </c>
       <c r="D196" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B197" t="s">
         <v>85</v>
       </c>
       <c r="D197" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B200" t="s">
         <v>85</v>
       </c>
       <c r="D200" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B201" t="s">
         <v>85</v>
       </c>
       <c r="D201" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B202" t="s">
         <v>85</v>
       </c>
       <c r="D202" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B203" t="s">
         <v>85</v>
       </c>
       <c r="D203" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B204" t="s">
         <v>85</v>
       </c>
       <c r="C204" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B209" t="s">
         <v>85</v>
       </c>
       <c r="C209" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B210" t="s">
         <v>85</v>
       </c>
       <c r="C210" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B225" t="s">
         <v>85</v>
       </c>
       <c r="C225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B226" t="s">
         <v>85</v>
       </c>
       <c r="C226" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B227" t="s">
         <v>85</v>
       </c>
       <c r="C227" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B228" t="s">
         <v>85</v>
       </c>
       <c r="C228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B229" t="s">
         <v>85</v>
       </c>
       <c r="C229" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B230" t="s">
         <v>85</v>
       </c>
       <c r="C230" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B231" t="s">
         <v>85</v>
       </c>
       <c r="C231" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B235" t="s">
         <v>85</v>
       </c>
       <c r="C235" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B237" t="s">
         <v>85</v>
       </c>
       <c r="C237" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B239" t="s">
         <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B243" t="s">
         <v>85</v>
       </c>
       <c r="C243" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4281,10 +5138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E355AB-C6E8-4542-B50A-974EF9E1DAD3}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4295,37 +5152,37 @@
     <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -4338,33 +5195,56 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
         <v>124</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" t="s">
-        <v>123</v>
+      <c r="E12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4374,10 +5254,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED7A564-0D36-3542-B91B-7538B700DE75}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4387,37 +5267,37 @@
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -4430,105 +5310,172 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>126</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
       <c r="D12" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="4" t="s">
+      <c r="E13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="4" t="s">
+      <c r="E14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="4" t="s">
+      <c r="E15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" s="4" t="s">
+      <c r="E16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="4"/>
+      <c r="E18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+      <c r="E19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+      <c r="E20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="4"/>
+      <c r="E21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
         <v>177</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>179</v>
       </c>
-      <c r="D18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C28" t="s">
         <v>181</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>182</v>
-      </c>
-      <c r="D20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4538,10 +5485,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7286CBD3-B5B6-B845-8B47-4BA99EB754E8}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4552,37 +5499,37 @@
     <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -4595,24 +5542,33 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
         <v>131</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -4620,85 +5576,88 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>133</v>
       </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -4706,33 +5665,33 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
   </sheetData>
@@ -4742,10 +5701,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6237CC16-39C7-3145-93B2-41C42B5A8FE5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4753,37 +5712,37 @@
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -4796,125 +5755,131 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
         <v>160</v>
-      </c>
-      <c r="B14" t="s">
-        <v>161</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>167</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4924,10 +5889,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9191736F-E848-6A46-AEF1-2B2AE14A062E}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4938,37 +5903,37 @@
     <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>403</v>
-      </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -4981,38 +5946,44 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>173</v>
       </c>
-      <c r="B10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>174</v>
       </c>
-      <c r="B11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -5020,9 +5991,9 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -5037,10 +6008,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E607C45C-17F0-0D47-9290-BE1CDFE643A4}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5049,37 +6020,37 @@
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -5092,61 +6063,91 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>145</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>149</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
         <v>153</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>147</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>151</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>405</v>
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
